--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:56</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:52</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.15</v>
+        <v>5.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.75</v>
+        <v>4.46</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:52</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.66</v>
+        <v>3.15</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.46</v>
+        <v>3.75</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.54</v>
+        <v>4.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.28</v>
+        <v>3.99</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:24</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.01</v>
+        <v>7.98</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.59</v>
+        <v>7.65</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:25</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:24</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>7.98</v>
+        <v>6.01</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>7.65</v>
+        <v>5.59</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>10/09/2023 17:10</t>
+          <t>10/09/2023 17:08</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>10/09/2023 18:22</t>
+          <t>10/09/2023 18:27</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.12</v>
+        <v>2.96</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>10/09/2023 17:08</t>
+          <t>10/09/2023 17:10</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>10/09/2023 18:27</t>
+          <t>10/09/2023 18:22</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
         </is>
       </c>
     </row>
@@ -6618,6 +6618,98 @@
       <c r="V67" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-r-oviedo/GKnS9nd3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45191.875</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:32</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>17/09/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>22/09/2023 20:32</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-eibar/f7VXoLKe/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.66</v>
+        <v>3.15</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.46</v>
+        <v>3.75</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:56</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:52</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.15</v>
+        <v>5.66</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.75</v>
+        <v>4.46</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.79</v>
+        <v>3.71</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.71</v>
+        <v>4.79</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.63</v>
+        <v>5.36</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.12</v>
+        <v>2.96</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>10/09/2023 17:08</t>
+          <t>10/09/2023 17:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>10/09/2023 18:27</t>
+          <t>10/09/2023 18:22</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>10/09/2023 17:10</t>
+          <t>10/09/2023 17:08</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>10/09/2023 18:22</t>
+          <t>10/09/2023 18:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
       <c r="J59" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -6710,6 +6710,742 @@
       <c r="V68" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-eibar/f7VXoLKe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45192.58333333334</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:47</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>23/09/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-gijon/pfiW86B9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45192.67708333334</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:08</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:08</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:08</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-eldense/f5vdjzCs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45192.77083333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>4</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>23/09/2023 17:50</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-elche/0pWTn15k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45192.875</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45192.875</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45193.58333333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>24/09/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-amorebieta/rTBS72sF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45193.67708333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:03</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:03</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>18/09/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:03</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-valladolid/AFDK9OC2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45193.77083333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:24</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>17/09/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>24/09/2023 18:20</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-leganes/GKS4lEtf/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:25</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:24</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>7.98</v>
+        <v>6.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.65</v>
+        <v>5.59</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:25</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.54</v>
+        <v>4.54</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.28</v>
+        <v>3.99</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:24</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>6.01</v>
+        <v>7.98</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.59</v>
+        <v>7.65</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
       <c r="J73" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,190 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-leganes/GKS4lEtf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45194.875</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>18/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45194.875</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:20</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:20</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
         </is>
       </c>
     </row>
